--- a/Resources/2002/Advanced_Percentile_2002.xlsx
+++ b/Resources/2002/Advanced_Percentile_2002.xlsx
@@ -1375,7 +1375,7 @@
     <t>fontais01</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Tim Duncan</t>
@@ -1387,7 +1387,7 @@
     <t>Paul Pierce</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Kobe Bryant</t>
@@ -1396,13 +1396,13 @@
     <t>Chris Webber</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Elton Brand</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Kevin Garnett</t>
@@ -1414,13 +1414,13 @@
     <t>Sam Cassell</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>John Stockton*</t>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Elden Campbell</t>
@@ -1441,7 +1441,7 @@
     <t>Jason Terry</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Michael Redd</t>
@@ -1456,7 +1456,7 @@
     <t>Pau Gasol</t>
   </si>
   <si>
-    <t>David Robinson*</t>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Donyell Marshall</t>
@@ -1483,7 +1483,7 @@
     <t>Brent Barry</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Chauncey Billups</t>
@@ -1498,7 +1498,7 @@
     <t>Bobby Jackson</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Antonio McDyess</t>
@@ -1543,7 +1543,7 @@
     <t>Raef LaFrentz</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Cuttino Mobley</t>
@@ -1594,7 +1594,7 @@
     <t>Joe Crispin</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Vlade Divac</t>
@@ -1669,7 +1669,7 @@
     <t>Reggie Slater</t>
   </si>
   <si>
-    <t>Michael Jordan*</t>
+    <t>Michael Jordan</t>
   </si>
   <si>
     <t>Ben Wallace</t>
@@ -1684,7 +1684,7 @@
     <t>Derek Fisher</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Gary Trent</t>
@@ -1792,7 +1792,7 @@
     <t>Matt Harpring</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Adrian Griffin</t>
@@ -1993,7 +1993,7 @@
     <t>Steve Kerr</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Bobby Simmons</t>
@@ -2059,7 +2059,7 @@
     <t>Robert Traylor</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Calvin Booth</t>
@@ -2278,7 +2278,7 @@
     <t>Kedrick Brown</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Trenton Hassell</t>
